--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\El Jaidroso\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE9FCE5-D13C-4C3C-BBC7-082E95A1779B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{571A5C04-1E32-4A2E-92D6-CE88481A5AD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t xml:space="preserve">PLACA </t>
   </si>
@@ -117,9 +116,6 @@
     <t>POLO</t>
   </si>
   <si>
-    <t>SM 39218</t>
-  </si>
-  <si>
     <t>ABASTO 4 CARNES</t>
   </si>
   <si>
@@ -138,9 +134,6 @@
     <t>SM 39222</t>
   </si>
   <si>
-    <t>VALENTE Y/JESUS</t>
-  </si>
-  <si>
     <t>SM 47367</t>
   </si>
   <si>
@@ -150,28 +143,34 @@
     <t>CRISTOBAL</t>
   </si>
   <si>
-    <t>TRA-959-A</t>
-  </si>
-  <si>
     <t>RAUL</t>
   </si>
   <si>
-    <t>Comodina                            Don Jesus</t>
-  </si>
-  <si>
-    <t>SEMANA # 22</t>
-  </si>
-  <si>
-    <t>TUK 059A</t>
-  </si>
-  <si>
-    <t>TUK 061A</t>
+    <t>TUK 059 A</t>
+  </si>
+  <si>
+    <t>TWE 080 A</t>
+  </si>
+  <si>
+    <t>TUK 062 A</t>
+  </si>
+  <si>
+    <t>Osiris</t>
+  </si>
+  <si>
+    <t>Comodina     Jesus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALENTE </t>
+  </si>
+  <si>
+    <t>SEMANA # 07 del 06 al 12/01/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -460,6 +459,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,31 +776,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E2254B-0C4E-472F-A1CB-B87DFC52AEC1}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="C1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -811,7 +813,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -826,7 +828,7 @@
       </c>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -841,7 +843,7 @@
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -852,11 +854,11 @@
         <v>9</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -871,7 +873,7 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -882,11 +884,11 @@
         <v>9</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -901,7 +903,7 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -916,7 +918,7 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -930,8 +932,11 @@
         <v>20</v>
       </c>
       <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G10" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -945,8 +950,11 @@
         <v>22</v>
       </c>
       <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G11" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -960,8 +968,11 @@
         <v>10</v>
       </c>
       <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G12" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -975,13 +986,16 @@
         <v>25</v>
       </c>
       <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G13" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>9</v>
@@ -990,13 +1004,16 @@
         <v>26</v>
       </c>
       <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G14" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>9</v>
@@ -1006,7 +1023,7 @@
       </c>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1021,24 +1038,24 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>31</v>
-      </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>32</v>
@@ -1046,14 +1063,14 @@
       <c r="C18" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>33</v>
@@ -1061,29 +1078,29 @@
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>14</v>
+      <c r="D19" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>35</v>
+      <c r="D20" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>36</v>
@@ -1091,59 +1108,47 @@
       <c r="C21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
+        <v>22</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="14" t="s">
+      <c r="C22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>5</v>
-      </c>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>40</v>
-      </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.03" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="200" r:id="rId1"/>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.46" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t xml:space="preserve">PLACA </t>
   </si>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">VALENTE </t>
   </si>
   <si>
-    <t>SEMANA # 07 del 06 al 12/01/2021</t>
+    <t>SEMANA # 07 del 14 al 20/02/2021</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -462,6 +462,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -932,9 +935,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="G10" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
@@ -950,9 +951,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="G11" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
@@ -968,9 +967,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="G12" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
@@ -986,9 +983,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="G13" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
@@ -1004,9 +999,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="G14" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -86,9 +86,6 @@
     <t>SL 78535</t>
   </si>
   <si>
-    <t>NESTOR</t>
-  </si>
-  <si>
     <t>SL 78539</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>SEMANA # 07 del 14 al 20/02/2021</t>
+  </si>
+  <si>
+    <t>Aleatoria</t>
   </si>
 </sst>
 </file>
@@ -460,11 +460,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,7 +783,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -797,11 +797,11 @@
     <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="C1" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
@@ -857,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="11"/>
     </row>
@@ -887,7 +887,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -932,33 +932,33 @@
         <v>9</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>22</v>
-      </c>
       <c r="E11" s="11"/>
-      <c r="G11" s="25"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>9</v>
@@ -967,52 +967,52 @@
         <v>10</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="G12" s="25"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13" s="11"/>
-      <c r="G13" s="25"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="G14" s="25"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="11"/>
     </row>
@@ -1021,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>29</v>
       </c>
       <c r="E16" s="11"/>
     </row>
@@ -1036,13 +1036,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="11"/>
     </row>
@@ -1051,7 +1051,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>9</v>
@@ -1066,13 +1066,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="E19" s="11"/>
     </row>
@@ -1081,13 +1081,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="11"/>
     </row>
@@ -1096,7 +1096,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>9</v>
@@ -1111,13 +1111,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="E22" s="11"/>
     </row>
@@ -1126,13 +1126,13 @@
         <v>23</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="11"/>
     </row>

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -161,10 +161,10 @@
     <t xml:space="preserve">VALENTE </t>
   </si>
   <si>
-    <t>SEMANA # 07 del 14 al 20/02/2021</t>
-  </si>
-  <si>
     <t>Aleatoria</t>
+  </si>
+  <si>
+    <t>SEMANA # 08 del 21 al 27/02/2021</t>
   </si>
 </sst>
 </file>
@@ -783,7 +783,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -798,7 +798,7 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
@@ -932,7 +932,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="24"/>

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -77,9 +77,6 @@
     <t xml:space="preserve">DANIEL </t>
   </si>
   <si>
-    <t>SM 46586</t>
-  </si>
-  <si>
     <t>GONZALO</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>SEMANA # 08 del 21 al 27/02/2021</t>
+  </si>
+  <si>
+    <t>SN-81-676</t>
   </si>
 </sst>
 </file>
@@ -783,7 +783,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -798,7 +798,7 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
@@ -857,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="11"/>
     </row>
@@ -887,7 +887,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -911,13 +911,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="E9" s="11"/>
     </row>
@@ -926,13 +926,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="24"/>
@@ -942,13 +942,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>21</v>
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="24"/>
@@ -958,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>9</v>
@@ -974,13 +974,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="24"/>
@@ -990,13 +990,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="11"/>
       <c r="G14" s="24"/>
@@ -1006,13 +1006,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="11"/>
     </row>
@@ -1021,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="E16" s="11"/>
     </row>
@@ -1036,13 +1036,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="11"/>
     </row>
@@ -1051,7 +1051,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>9</v>
@@ -1066,13 +1066,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="E19" s="11"/>
     </row>
@@ -1081,13 +1081,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="11"/>
     </row>
@@ -1096,7 +1096,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>9</v>
@@ -1111,13 +1111,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="E22" s="11"/>
     </row>
@@ -1126,13 +1126,13 @@
         <v>23</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="11"/>
     </row>

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t xml:space="preserve">PLACA </t>
   </si>
@@ -110,19 +110,7 @@
     <t>POLO</t>
   </si>
   <si>
-    <t>ABASTO 4 CARNES</t>
-  </si>
-  <si>
-    <t>SM 39219</t>
-  </si>
-  <si>
     <t>SM 39220</t>
-  </si>
-  <si>
-    <t>SM 39221</t>
-  </si>
-  <si>
-    <t>BENITO</t>
   </si>
   <si>
     <t>SM 39222</t>
@@ -780,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -798,7 +786,7 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
@@ -857,7 +845,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E5" s="11"/>
     </row>
@@ -887,7 +875,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -911,7 +899,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>9</v>
@@ -932,7 +920,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="24"/>
@@ -990,7 +978,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>9</v>
@@ -1006,7 +994,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>9</v>
@@ -1033,110 +1021,80 @@
     </row>
     <row r="17" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>14</v>
+      <c r="D18" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
-        <v>21</v>
-      </c>
-      <c r="B21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>5</v>
+      <c r="C21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="4">
-        <v>22</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="4">
-        <v>23</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -149,10 +149,10 @@
     <t>Aleatoria</t>
   </si>
   <si>
-    <t>SEMANA # 08 del 21 al 27/02/2021</t>
-  </si>
-  <si>
     <t>SN-81-676</t>
+  </si>
+  <si>
+    <t>SEMANA # 14 del 04 al 10/04/2021</t>
   </si>
 </sst>
 </file>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -786,7 +786,7 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
@@ -899,7 +899,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>9</v>

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\El Jaidroso\Documents\GitHub\Cortes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC790606-5502-4FE1-B5EA-EE0B1D653EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -74,9 +75,6 @@
     <t>SM 46572</t>
   </si>
   <si>
-    <t xml:space="preserve">DANIEL </t>
-  </si>
-  <si>
     <t>GONZALO</t>
   </si>
   <si>
@@ -153,12 +151,15 @@
   </si>
   <si>
     <t>SEMANA # 14 del 04 al 10/04/2021</t>
+  </si>
+  <si>
+    <t>ALEATORIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -767,11 +768,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -786,7 +787,7 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
@@ -845,7 +846,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="11"/>
     </row>
@@ -875,7 +876,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -890,7 +891,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -899,13 +900,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="11"/>
     </row>
@@ -914,13 +915,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="24"/>
@@ -930,13 +931,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="24"/>
@@ -946,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>9</v>
@@ -962,13 +963,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="24"/>
@@ -978,13 +979,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="11"/>
       <c r="G14" s="24"/>
@@ -994,13 +995,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="11"/>
     </row>
@@ -1009,13 +1010,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>27</v>
       </c>
       <c r="E16" s="11"/>
     </row>
@@ -1024,7 +1025,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>9</v>
@@ -1039,13 +1040,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="11"/>
     </row>
@@ -1054,7 +1055,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>9</v>
@@ -1069,13 +1070,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>32</v>
       </c>
       <c r="E20" s="11"/>
     </row>
@@ -1084,13 +1085,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="11"/>
     </row>

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC790606-5502-4FE1-B5EA-EE0B1D653EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87961612-049A-4965-B905-579C635914F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t xml:space="preserve">PLACA </t>
   </si>
@@ -135,31 +136,55 @@
     <t>TUK 062 A</t>
   </si>
   <si>
-    <t>Osiris</t>
-  </si>
-  <si>
-    <t>Comodina     Jesus</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALENTE </t>
   </si>
   <si>
-    <t>Aleatoria</t>
-  </si>
-  <si>
     <t>SN-81-676</t>
   </si>
   <si>
-    <t>SEMANA # 14 del 04 al 10/04/2021</t>
-  </si>
-  <si>
-    <t>ALEATORIA</t>
+    <t>OSIRIS</t>
+  </si>
+  <si>
+    <t>SEMANA</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>NESTOR</t>
+  </si>
+  <si>
+    <t>BENITO</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>PACO</t>
+  </si>
+  <si>
+    <t>ADRIANA</t>
+  </si>
+  <si>
+    <t>ARGELIA</t>
+  </si>
+  <si>
+    <t>ARTUROS TRAILER</t>
+  </si>
+  <si>
+    <t>JESUS PACHECO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -254,32 +279,6 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -287,19 +286,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -345,19 +331,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -367,12 +340,64 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -380,80 +405,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,338 +797,868 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="25" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="25">
+        <v>19</v>
+      </c>
+      <c r="D1" s="26">
+        <v>44702</v>
+      </c>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>20</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>21</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>22</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>23</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F88BBBB1-2A4B-4BF7-9116-804F8D07418E}">
+          <x14:formula1>
+            <xm:f>Hoja2!$A$1:$A$52</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{90D469A9-DD62-4DB5-9399-ECC57356032C}">
+          <x14:formula1>
+            <xm:f>Hoja2!$B$1:$B$52</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{820D6206-C454-4476-B060-584D74A62C8E}">
+          <x14:formula1>
+            <xm:f>Hoja2!$C$1:$C$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>D22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EA365A8C-AE35-4D1C-95E3-258043474793}">
+          <x14:formula1>
+            <xm:f>Hoja2!$C$1:$C$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4:D21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359EE7A1-4B46-4A6F-8215-2FF95612A410}">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.28515625" style="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18">
+        <v>44569</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18">
+        <v>44576</v>
+      </c>
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="18">
+        <v>44583</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="B4" s="18">
+        <v>44590</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="B5" s="18">
+        <v>44597</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="B6" s="18">
+        <v>44604</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>7</v>
       </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="B7" s="18">
+        <v>44611</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="B8" s="18">
+        <v>44618</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="18">
+        <v>44625</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="18">
+        <v>44632</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="18">
+        <v>44639</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="18">
+        <v>44646</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="18">
+        <v>44653</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="18">
+        <v>44660</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="18">
+        <v>44667</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="18">
+        <v>44674</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="18">
+        <v>44681</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="18">
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="18">
+        <v>44695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="18">
+        <v>44702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="18">
+        <v>44709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="18">
+        <v>44716</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="18">
+        <v>44723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="18">
+        <v>44730</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="18">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="18">
+        <v>44744</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="18">
+        <v>44751</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="18">
+        <v>44758</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="18">
+        <v>44765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="18">
+        <v>44772</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="18">
+        <v>44779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="18">
+        <v>44786</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="18">
+        <v>44793</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" s="18">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="18">
+        <v>44807</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>36</v>
       </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="22" t="s">
+      <c r="B36" s="18">
+        <v>44814</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>37</v>
       </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="B37" s="18">
+        <v>44821</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" s="18">
+        <v>44828</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" s="18">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" s="18">
+        <v>44842</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" s="18">
+        <v>44849</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>42</v>
       </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="12" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="4">
-        <v>18</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
-        <v>20</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="4">
-        <v>21</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="4">
-        <v>22</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="4">
-        <v>23</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B42" s="18">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" s="18">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" s="18">
+        <v>44870</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" s="18">
+        <v>44877</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" s="18">
+        <v>44884</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" s="18">
+        <v>44891</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" s="18">
+        <v>44898</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" s="18">
+        <v>44905</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" s="18">
+        <v>44912</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" s="18">
+        <v>44919</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" s="18">
+        <v>44926</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.46" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87961612-049A-4965-B905-579C635914F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CDEC1B-64C3-4A95-A312-3A0A73BF810E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,7 +183,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -458,7 +458,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -477,11 +477,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,7 +800,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -813,23 +813,23 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="25">
-        <v>19</v>
-      </c>
-      <c r="D1" s="26">
+      <c r="C1" s="26">
+        <v>20</v>
+      </c>
+      <c r="D1" s="25">
         <v>44702</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CDEC1B-64C3-4A95-A312-3A0A73BF810E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443D1D5B-C43A-4623-B2C3-16BF89A8BFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -800,7 +800,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -817,10 +817,10 @@
         <v>39</v>
       </c>
       <c r="C1" s="26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="25">
-        <v>44702</v>
+        <v>44709</v>
       </c>
       <c r="E1" s="25"/>
     </row>

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443D1D5B-C43A-4623-B2C3-16BF89A8BFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2225D7-10C6-4B92-A8A1-EA257DAEE75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -800,7 +800,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -817,10 +817,10 @@
         <v>39</v>
       </c>
       <c r="C1" s="26">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="25">
-        <v>44709</v>
+        <v>44716</v>
       </c>
       <c r="E1" s="25"/>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -899,8 +899,8 @@
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>44</v>
+      <c r="D7" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -915,7 +915,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4"/>
     </row>

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2225D7-10C6-4B92-A8A1-EA257DAEE75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7571FC11-9BD2-4996-B8B8-A8FAB21A12CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>PABLO</t>
   </si>
   <si>
-    <t>SM-56393</t>
-  </si>
-  <si>
     <t>JULIO</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>Comodina</t>
   </si>
   <si>
-    <t>SM 46572</t>
-  </si>
-  <si>
     <t>GONZALO</t>
   </si>
   <si>
@@ -176,6 +170,12 @@
   </si>
   <si>
     <t>JESUS PACHECO</t>
+  </si>
+  <si>
+    <t>SP 13215</t>
+  </si>
+  <si>
+    <t>SP 13221</t>
   </si>
 </sst>
 </file>
@@ -800,7 +800,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -814,7 +814,7 @@
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24"/>
       <c r="B1" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="26">
         <v>22</v>
@@ -855,7 +855,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -885,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -894,13 +894,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -909,13 +909,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -924,13 +924,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -939,13 +939,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -954,13 +954,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4"/>
       <c r="G11" s="17"/>
@@ -970,13 +970,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="17"/>
@@ -986,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>9</v>
@@ -1002,13 +1002,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" s="4"/>
       <c r="G14" s="17"/>
@@ -1018,13 +1018,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4"/>
       <c r="G15" s="17"/>
@@ -1034,13 +1034,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16" s="4"/>
     </row>
@@ -1049,13 +1049,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -1064,13 +1064,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -1079,13 +1079,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E19" s="4"/>
     </row>
@@ -1094,7 +1094,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>9</v>
@@ -1109,13 +1109,13 @@
         <v>22</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E21" s="4"/>
     </row>
@@ -1124,13 +1124,13 @@
         <v>23</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E22" s="4"/>
     </row>
@@ -1199,7 +1199,7 @@
         <v>44569</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1210,7 +1210,7 @@
         <v>44576</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1221,7 +1221,7 @@
         <v>44583</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
         <v>44590</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1243,7 +1243,7 @@
         <v>44597</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
         <v>44604</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1276,7 +1276,7 @@
         <v>44618</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
         <v>44625</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1298,7 +1298,7 @@
         <v>44632</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1309,7 +1309,7 @@
         <v>44639</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1320,7 +1320,7 @@
         <v>44646</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1331,7 +1331,7 @@
         <v>44653</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1342,7 +1342,7 @@
         <v>44660</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1353,7 +1353,7 @@
         <v>44667</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1364,7 +1364,7 @@
         <v>44674</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1375,7 +1375,7 @@
         <v>44681</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7571FC11-9BD2-4996-B8B8-A8FAB21A12CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FD769A-BD9B-4095-BF53-32FB8B8936F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t xml:space="preserve">PLACA </t>
   </si>
@@ -64,9 +64,6 @@
     <t>JULIO</t>
   </si>
   <si>
-    <t>SM-60194</t>
-  </si>
-  <si>
     <t>Comodina</t>
   </si>
   <si>
@@ -169,13 +166,22 @@
     <t>ARTUROS TRAILER</t>
   </si>
   <si>
-    <t>JESUS PACHECO</t>
-  </si>
-  <si>
     <t>SP 13215</t>
   </si>
   <si>
     <t>SP 13221</t>
+  </si>
+  <si>
+    <t>SP 13163</t>
+  </si>
+  <si>
+    <t>SP 13165</t>
+  </si>
+  <si>
+    <t>SP 13166</t>
+  </si>
+  <si>
+    <t>DON CHUCHO</t>
   </si>
 </sst>
 </file>
@@ -405,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -473,6 +479,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -797,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D1" sqref="D1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -812,26 +821,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="26">
-        <v>22</v>
-      </c>
-      <c r="D1" s="25">
-        <v>44716</v>
-      </c>
-      <c r="E1" s="25"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="27">
+        <v>23</v>
+      </c>
+      <c r="D1" s="26">
+        <v>44723</v>
+      </c>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="21" t="s">
         <v>0</v>
@@ -844,7 +853,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -855,13 +864,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -874,9 +883,9 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>8</v>
@@ -885,13 +894,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>48</v>
@@ -900,31 +909,31 @@
         <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>9</v>
@@ -934,59 +943,59 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="4"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>9</v>
@@ -997,104 +1006,104 @@
       <c r="E13" s="4"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="E14" s="4"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="4"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="B17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="B18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
-        <v>18</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <v>20</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
-        <v>21</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>9</v>
@@ -1104,37 +1113,63 @@
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="4">
@@ -1164,13 +1199,13 @@
           <x14:formula1>
             <xm:f>Hoja2!$C$1:$C$16</xm:f>
           </x14:formula1>
-          <xm:sqref>D22</xm:sqref>
+          <xm:sqref>D22 D24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EA365A8C-AE35-4D1C-95E3-258043474793}">
           <x14:formula1>
             <xm:f>Hoja2!$C$1:$C$17</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D21</xm:sqref>
+          <xm:sqref>D4:D21 D23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1183,7 +1218,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1234,7 @@
         <v>44569</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1210,7 +1245,7 @@
         <v>44576</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1221,7 +1256,7 @@
         <v>44583</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1232,7 +1267,7 @@
         <v>44590</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1243,7 +1278,7 @@
         <v>44597</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1254,7 +1289,7 @@
         <v>44604</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1276,7 +1311,7 @@
         <v>44618</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1287,7 +1322,7 @@
         <v>44625</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1298,7 +1333,7 @@
         <v>44632</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1309,7 +1344,7 @@
         <v>44639</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1320,7 +1355,7 @@
         <v>44646</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1342,7 +1377,7 @@
         <v>44660</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1353,7 +1388,7 @@
         <v>44667</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1364,7 +1399,7 @@
         <v>44674</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1375,7 +1410,7 @@
         <v>44681</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FD769A-BD9B-4095-BF53-32FB8B8936F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5966ACA-4B66-4643-AF4A-E0EAF342C13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,10 +826,10 @@
         <v>36</v>
       </c>
       <c r="C1" s="27">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="26">
-        <v>44723</v>
+        <v>44730</v>
       </c>
       <c r="E1" s="26"/>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="34.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5966ACA-4B66-4643-AF4A-E0EAF342C13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t xml:space="preserve">PLACA </t>
   </si>
@@ -70,9 +69,6 @@
     <t>GONZALO</t>
   </si>
   <si>
-    <t>SL 78535</t>
-  </si>
-  <si>
     <t>SL 78539</t>
   </si>
   <si>
@@ -106,9 +102,6 @@
     <t>SM 39222</t>
   </si>
   <si>
-    <t>SM 47367</t>
-  </si>
-  <si>
     <t>SM 51619</t>
   </si>
   <si>
@@ -182,12 +175,21 @@
   </si>
   <si>
     <t>DON CHUCHO</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>SP 13263</t>
+  </si>
+  <si>
+    <t>SP 13267</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -805,11 +807,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -823,7 +825,7 @@
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25"/>
       <c r="B1" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="27">
         <v>24</v>
@@ -864,7 +866,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -894,7 +896,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -903,13 +905,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -918,13 +920,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -933,7 +935,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>9</v>
@@ -948,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>9</v>
@@ -963,13 +965,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="4"/>
       <c r="G11" s="17"/>
@@ -979,13 +981,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="17"/>
@@ -995,7 +997,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>9</v>
@@ -1011,13 +1013,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E14" s="4"/>
       <c r="G14" s="17"/>
@@ -1027,13 +1029,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="4"/>
       <c r="G15" s="17"/>
@@ -1043,13 +1045,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="4"/>
     </row>
@@ -1058,13 +1060,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -1073,13 +1075,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -1088,13 +1090,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" s="4"/>
     </row>
@@ -1103,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>9</v>
@@ -1118,13 +1120,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" s="4"/>
     </row>
@@ -1133,13 +1135,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E22" s="4"/>
     </row>
@@ -1148,12 +1150,14 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1161,12 +1165,14 @@
         <v>21</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="6"/>
       <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1182,30 +1188,24 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F88BBBB1-2A4B-4BF7-9116-804F8D07418E}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja2!$A$1:$A$52</xm:f>
           </x14:formula1>
           <xm:sqref>C1</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{90D469A9-DD62-4DB5-9399-ECC57356032C}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja2!$B$1:$B$52</xm:f>
           </x14:formula1>
           <xm:sqref>D1</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{820D6206-C454-4476-B060-584D74A62C8E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Hoja2!$C$1:$C$16</xm:f>
+            <xm:f>Hoja2!$C$1:$C$18</xm:f>
           </x14:formula1>
-          <xm:sqref>D22 D24</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EA365A8C-AE35-4D1C-95E3-258043474793}">
-          <x14:formula1>
-            <xm:f>Hoja2!$C$1:$C$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>D4:D21 D23</xm:sqref>
+          <xm:sqref>D3:D24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1214,11 +1214,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359EE7A1-4B46-4A6F-8215-2FF95612A410}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1234,7 @@
         <v>44569</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,7 +1245,7 @@
         <v>44576</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1256,7 +1256,7 @@
         <v>44583</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
         <v>44590</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
         <v>44597</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1289,7 +1289,7 @@
         <v>44604</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
         <v>44618</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1322,7 +1322,7 @@
         <v>44625</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>44632</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1344,7 +1344,7 @@
         <v>44639</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1355,7 +1355,7 @@
         <v>44646</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1377,7 +1377,7 @@
         <v>44660</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1388,7 +1388,7 @@
         <v>44667</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1399,7 +1399,7 @@
         <v>44674</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1419,6 +1419,9 @@
       </c>
       <c r="B18" s="18">
         <v>44688</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -828,10 +828,10 @@
         <v>34</v>
       </c>
       <c r="C1" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="26">
-        <v>44730</v>
+        <v>44737</v>
       </c>
       <c r="E1" s="26"/>
     </row>

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -828,10 +828,10 @@
         <v>34</v>
       </c>
       <c r="C1" s="27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="26">
-        <v>44737</v>
+        <v>44751</v>
       </c>
       <c r="E1" s="26"/>
     </row>

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -51,9 +51,6 @@
     <t xml:space="preserve">ARTURO </t>
   </si>
   <si>
-    <t>SM 55463</t>
-  </si>
-  <si>
     <t>ODELPA</t>
   </si>
   <si>
@@ -69,18 +66,9 @@
     <t>GONZALO</t>
   </si>
   <si>
-    <t>SL 78539</t>
-  </si>
-  <si>
     <t xml:space="preserve">PACO </t>
   </si>
   <si>
-    <t>SL 78541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Kodiak    SL 53584</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALMACEN </t>
   </si>
   <si>
@@ -96,15 +84,9 @@
     <t>POLO</t>
   </si>
   <si>
-    <t>SM 39220</t>
-  </si>
-  <si>
     <t>SM 39222</t>
   </si>
   <si>
-    <t>SM 51619</t>
-  </si>
-  <si>
     <t>CRISTOBAL</t>
   </si>
   <si>
@@ -184,6 +166,24 @@
   </si>
   <si>
     <t>SP 13267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Kodiak   SP 16674</t>
+  </si>
+  <si>
+    <t>SP 16650</t>
+  </si>
+  <si>
+    <t>SP 16649</t>
+  </si>
+  <si>
+    <t>SP 16659</t>
+  </si>
+  <si>
+    <t>SP 16652</t>
+  </si>
+  <si>
+    <t>SP 16664</t>
   </si>
 </sst>
 </file>
@@ -825,13 +825,13 @@
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25"/>
       <c r="B1" s="27" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C1" s="27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="26">
-        <v>44751</v>
+        <v>44758</v>
       </c>
       <c r="E1" s="26"/>
     </row>
@@ -866,7 +866,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -890,13 +890,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -905,13 +905,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -920,13 +920,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -935,13 +935,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -950,13 +950,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -965,13 +965,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4"/>
       <c r="G11" s="17"/>
@@ -981,13 +981,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="17"/>
@@ -997,13 +997,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>9</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>10</v>
       </c>
       <c r="E13" s="4"/>
       <c r="G13" s="17"/>
@@ -1013,13 +1013,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E14" s="4"/>
       <c r="G14" s="17"/>
@@ -1029,13 +1029,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E15" s="4"/>
       <c r="G15" s="17"/>
@@ -1045,13 +1045,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E16" s="4"/>
     </row>
@@ -1060,13 +1060,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -1075,13 +1075,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -1090,13 +1090,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E19" s="4"/>
     </row>
@@ -1105,10 +1105,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>5</v>
@@ -1120,13 +1120,13 @@
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E21" s="4"/>
     </row>
@@ -1135,13 +1135,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E22" s="4"/>
     </row>
@@ -1150,13 +1150,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E23" s="24"/>
     </row>
@@ -1165,13 +1165,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E24" s="24"/>
     </row>
@@ -1234,7 +1234,7 @@
         <v>44569</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,7 +1245,7 @@
         <v>44576</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1256,7 +1256,7 @@
         <v>44583</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
         <v>44590</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
         <v>44597</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1289,7 +1289,7 @@
         <v>44604</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
         <v>44611</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
         <v>44618</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1322,7 +1322,7 @@
         <v>44625</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>44632</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1344,7 +1344,7 @@
         <v>44639</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1355,7 +1355,7 @@
         <v>44646</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1366,7 +1366,7 @@
         <v>44653</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1377,7 +1377,7 @@
         <v>44660</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1388,7 +1388,7 @@
         <v>44667</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1399,7 +1399,7 @@
         <v>44674</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1410,7 +1410,7 @@
         <v>44681</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1421,7 +1421,7 @@
         <v>44688</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -811,7 +812,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -828,10 +829,10 @@
         <v>28</v>
       </c>
       <c r="C1" s="27">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="26">
-        <v>44758</v>
+        <v>44779</v>
       </c>
       <c r="E1" s="26"/>
     </row>
@@ -1215,6 +1216,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -812,7 +812,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D1" sqref="D1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -829,10 +829,10 @@
         <v>28</v>
       </c>
       <c r="C1" s="27">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="26">
-        <v>44779</v>
+        <v>44786</v>
       </c>
       <c r="E1" s="26"/>
     </row>

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -118,12 +118,6 @@
     <t>ALBERTO</t>
   </si>
   <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>NESTOR</t>
-  </si>
-  <si>
     <t>BENITO</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>SP 16664</t>
+  </si>
+  <si>
+    <t>ALEATORIA</t>
+  </si>
+  <si>
+    <t>Ruben Dario</t>
   </si>
 </sst>
 </file>
@@ -829,10 +829,10 @@
         <v>28</v>
       </c>
       <c r="C1" s="27">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D1" s="26">
-        <v>44786</v>
+        <v>44800</v>
       </c>
       <c r="E1" s="26"/>
     </row>
@@ -891,7 +891,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>8</v>
@@ -906,13 +906,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -921,13 +921,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -936,7 +936,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>8</v>
@@ -966,13 +966,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4"/>
       <c r="G11" s="17"/>
@@ -982,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>8</v>
@@ -998,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>8</v>
@@ -1014,7 +1014,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>8</v>
@@ -1076,13 +1076,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -1106,7 +1106,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>8</v>
@@ -1121,7 +1121,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>8</v>
@@ -1151,13 +1151,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E23" s="24"/>
     </row>
@@ -1166,13 +1166,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="E24" s="24"/>
     </row>
@@ -1189,7 +1189,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja2!$A$1:$A$52</xm:f>
@@ -1206,7 +1206,13 @@
           <x14:formula1>
             <xm:f>Hoja2!$C$1:$C$18</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D24</xm:sqref>
+          <xm:sqref>D4:D24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$C$1:$C$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1231,7 +1237,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C3" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1275,7 @@
         <v>44583</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1280,7 +1286,7 @@
         <v>44590</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1291,7 +1297,7 @@
         <v>44597</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1302,7 +1308,7 @@
         <v>44604</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1313,7 +1319,7 @@
         <v>44611</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1324,7 +1330,7 @@
         <v>44618</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1335,7 +1341,7 @@
         <v>44625</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1346,7 +1352,7 @@
         <v>44632</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1357,7 +1363,7 @@
         <v>44639</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1368,7 +1374,7 @@
         <v>44646</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1379,7 +1385,7 @@
         <v>44653</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,7 +1396,7 @@
         <v>44660</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1401,7 +1407,7 @@
         <v>44667</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1412,7 +1418,7 @@
         <v>44674</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1423,7 +1429,7 @@
         <v>44681</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1434,7 +1440,7 @@
         <v>44688</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t xml:space="preserve">PLACA </t>
   </si>
@@ -49,9 +49,6 @@
     <t>58-AN-4L  Tracto</t>
   </si>
   <si>
-    <t xml:space="preserve">ARTURO </t>
-  </si>
-  <si>
     <t>ODELPA</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>JULIO</t>
   </si>
   <si>
-    <t>Comodina</t>
-  </si>
-  <si>
     <t>GONZALO</t>
   </si>
   <si>
@@ -142,9 +136,6 @@
     <t>SP 13221</t>
   </si>
   <si>
-    <t>SP 13163</t>
-  </si>
-  <si>
     <t>SP 13165</t>
   </si>
   <si>
@@ -185,6 +176,27 @@
   </si>
   <si>
     <t>Ruben Dario</t>
+  </si>
+  <si>
+    <t>SP 41023</t>
+  </si>
+  <si>
+    <t>11 Sur</t>
+  </si>
+  <si>
+    <t>SP 41040</t>
+  </si>
+  <si>
+    <t>SN 79093</t>
+  </si>
+  <si>
+    <t>ZAVALETA</t>
+  </si>
+  <si>
+    <t>VERSA</t>
+  </si>
+  <si>
+    <t>TRA 959A</t>
   </si>
 </sst>
 </file>
@@ -194,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +256,21 @@
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -414,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -482,6 +509,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -809,7 +848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E2"/>
@@ -824,24 +863,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="27">
-        <v>35</v>
-      </c>
-      <c r="D1" s="26">
-        <v>44800</v>
-      </c>
-      <c r="E1" s="26"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="31">
+        <v>40</v>
+      </c>
+      <c r="D1" s="30">
+        <v>44835</v>
+      </c>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -854,7 +893,7 @@
       <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
@@ -867,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -881,8 +920,8 @@
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
+      <c r="D5" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -891,55 +930,55 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>52</v>
+        <v>35</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>10</v>
@@ -948,235 +987,289 @@
     </row>
     <row r="10" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E11" s="4"/>
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>8</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E13" s="4"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>45</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="4"/>
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="34.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="34.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>8</v>
+        <v>44</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <v>18</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
-        <v>19</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
-        <v>20</v>
-      </c>
-      <c r="B23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>39</v>
+      </c>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="25"/>
+    </row>
+    <row r="28" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="28"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="4">
@@ -1185,7 +1278,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.18" top="0.51" bottom="0.32" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1204,15 +1297,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Hoja2!$C$1:$C$18</xm:f>
+            <xm:f>Hoja2!$C$1:$C$16</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D24</xm:sqref>
+          <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Hoja2!$C$1:$C$16</xm:f>
+            <xm:f>Hoja2!$C$1:$C$18</xm:f>
           </x14:formula1>
-          <xm:sqref>D3</xm:sqref>
+          <xm:sqref>D4:D28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1237,7 +1330,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C2:C3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,7 +1346,7 @@
         <v>44569</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1264,7 +1357,7 @@
         <v>44576</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1275,7 +1368,7 @@
         <v>44583</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1286,7 +1379,7 @@
         <v>44590</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1297,7 +1390,7 @@
         <v>44597</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1308,7 +1401,7 @@
         <v>44604</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1319,7 +1412,7 @@
         <v>44611</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1330,7 +1423,7 @@
         <v>44618</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1341,7 +1434,7 @@
         <v>44625</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1352,7 +1445,7 @@
         <v>44632</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1363,7 +1456,7 @@
         <v>44639</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1374,7 +1467,7 @@
         <v>44646</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1385,7 +1478,7 @@
         <v>44653</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1396,7 +1489,7 @@
         <v>44660</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1407,7 +1500,7 @@
         <v>44667</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1418,7 +1511,7 @@
         <v>44674</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,7 +1522,7 @@
         <v>44681</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1440,7 +1533,7 @@
         <v>44688</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t xml:space="preserve">PLACA </t>
   </si>
@@ -109,9 +109,6 @@
     <t>SEMANA</t>
   </si>
   <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
     <t>BENITO</t>
   </si>
   <si>
@@ -197,6 +194,15 @@
   </si>
   <si>
     <t>TRA 959A</t>
+  </si>
+  <si>
+    <t>UJY-013-A</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>Don Jose Luis</t>
   </si>
 </sst>
 </file>
@@ -851,7 +857,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -868,10 +874,10 @@
         <v>26</v>
       </c>
       <c r="C1" s="31">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="30">
-        <v>44835</v>
+        <v>44856</v>
       </c>
       <c r="E1" s="30"/>
     </row>
@@ -906,7 +912,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -921,7 +927,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -930,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>7</v>
@@ -945,13 +951,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -960,7 +966,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>7</v>
@@ -990,13 +996,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="4"/>
       <c r="G10" s="17"/>
@@ -1006,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>7</v>
@@ -1022,7 +1028,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>7</v>
@@ -1038,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>7</v>
@@ -1100,13 +1106,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -1130,7 +1136,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>7</v>
@@ -1145,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>7</v>
@@ -1175,13 +1181,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="24"/>
     </row>
@@ -1190,13 +1196,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="24"/>
     </row>
@@ -1205,13 +1211,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="25"/>
     </row>
@@ -1220,13 +1226,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" s="25"/>
     </row>
@@ -1235,13 +1241,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="D26" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" s="25"/>
     </row>
@@ -1250,13 +1256,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" s="25"/>
     </row>
@@ -1264,9 +1270,15 @@
       <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="6"/>
+      <c r="B28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1342,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,7 +1358,7 @@
         <v>44569</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1357,7 +1369,7 @@
         <v>44576</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1379,7 +1391,7 @@
         <v>44590</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1401,7 +1413,7 @@
         <v>44604</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1423,7 +1435,7 @@
         <v>44618</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1434,7 +1446,7 @@
         <v>44625</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1467,7 +1479,7 @@
         <v>44646</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1478,7 +1490,7 @@
         <v>44653</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1500,7 +1512,7 @@
         <v>44667</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1511,7 +1523,7 @@
         <v>44674</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1522,7 +1534,7 @@
         <v>44681</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1533,7 +1545,7 @@
         <v>44688</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -857,7 +857,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D1" sqref="D1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -874,10 +874,10 @@
         <v>26</v>
       </c>
       <c r="C1" s="31">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D1" s="30">
-        <v>44856</v>
+        <v>44877</v>
       </c>
       <c r="E1" s="30"/>
     </row>

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t xml:space="preserve">PLACA </t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Don Jose Luis</t>
+  </si>
+  <si>
+    <t>VENDIDA</t>
   </si>
 </sst>
 </file>
@@ -874,10 +877,10 @@
         <v>26</v>
       </c>
       <c r="C1" s="31">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="30">
-        <v>44877</v>
+        <v>44891</v>
       </c>
       <c r="E1" s="30"/>
     </row>
@@ -1114,7 +1117,9 @@
       <c r="D17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
@@ -1144,7 +1149,9 @@
       <c r="D19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t xml:space="preserve">PLACA </t>
   </si>
@@ -43,9 +43,6 @@
     <t>NLP</t>
   </si>
   <si>
-    <t xml:space="preserve">ALBERTO   </t>
-  </si>
-  <si>
     <t>58-AN-4L  Tracto</t>
   </si>
   <si>
@@ -145,18 +142,12 @@
     <t>Toyota</t>
   </si>
   <si>
-    <t>SP 13263</t>
-  </si>
-  <si>
     <t>SP 13267</t>
   </si>
   <si>
     <t xml:space="preserve">   Kodiak   SP 16674</t>
   </si>
   <si>
-    <t>SP 16650</t>
-  </si>
-  <si>
     <t>SP 16649</t>
   </si>
   <si>
@@ -203,9 +194,6 @@
   </si>
   <si>
     <t>Don Jose Luis</t>
-  </si>
-  <si>
-    <t>VENDIDA</t>
   </si>
 </sst>
 </file>
@@ -857,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E2"/>
@@ -874,13 +862,13 @@
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29"/>
       <c r="B1" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="31">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D1" s="30">
-        <v>44891</v>
+        <v>44912</v>
       </c>
       <c r="E1" s="30"/>
     </row>
@@ -915,7 +903,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -924,13 +912,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -939,13 +927,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -954,13 +942,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -969,13 +957,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -984,13 +972,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -999,13 +987,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4"/>
       <c r="G10" s="17"/>
@@ -1015,13 +1003,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4"/>
       <c r="G11" s="17"/>
@@ -1031,13 +1019,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>7</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>8</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="17"/>
@@ -1047,13 +1035,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="4"/>
       <c r="G13" s="17"/>
@@ -1063,13 +1051,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="4"/>
       <c r="G14" s="17"/>
@@ -1079,13 +1067,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="4"/>
     </row>
@@ -1094,201 +1082,167 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="34.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
       <c r="B17" s="7" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="1:5" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="D25" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
-        <v>25</v>
-      </c>
-      <c r="B27" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="2">
-        <v>26</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="28"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="4">
@@ -1324,7 +1278,7 @@
           <x14:formula1>
             <xm:f>Hoja2!$C$1:$C$18</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D28</xm:sqref>
+          <xm:sqref>D4:D26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1365,7 +1319,7 @@
         <v>44569</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,7 +1330,7 @@
         <v>44576</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1387,7 +1341,7 @@
         <v>44583</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,7 +1352,7 @@
         <v>44590</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,7 +1363,7 @@
         <v>44597</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1420,7 +1374,7 @@
         <v>44604</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1431,7 +1385,7 @@
         <v>44611</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1442,7 +1396,7 @@
         <v>44618</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1453,7 +1407,7 @@
         <v>44625</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1464,7 +1418,7 @@
         <v>44632</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1475,7 +1429,7 @@
         <v>44639</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1486,7 +1440,7 @@
         <v>44646</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1497,7 +1451,7 @@
         <v>44653</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1508,7 +1462,7 @@
         <v>44660</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1519,7 +1473,7 @@
         <v>44667</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1530,7 +1484,7 @@
         <v>44674</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1541,7 +1495,7 @@
         <v>44681</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1552,7 +1506,7 @@
         <v>44688</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC MASTER RACE\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t xml:space="preserve">PLACA </t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>Don Jose Luis</t>
+  </si>
+  <si>
+    <t>Sin kilometraje</t>
+  </si>
+  <si>
+    <t>Igual</t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
   </si>
 </sst>
 </file>
@@ -848,7 +857,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E2"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -868,7 +877,7 @@
         <v>51</v>
       </c>
       <c r="D1" s="30">
-        <v>44912</v>
+        <v>44919</v>
       </c>
       <c r="E1" s="30"/>
     </row>
@@ -905,7 +914,9 @@
       <c r="D4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
@@ -920,7 +931,9 @@
       <c r="D5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
@@ -933,9 +946,11 @@
         <v>6</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E6" s="4">
+        <v>144073</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
@@ -950,7 +965,9 @@
       <c r="D7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>56724</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
@@ -965,7 +982,9 @@
       <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <v>246252</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
@@ -980,7 +999,9 @@
       <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4">
+        <v>258978</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
@@ -995,7 +1016,9 @@
       <c r="D10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4">
+        <v>307153</v>
+      </c>
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1011,7 +1034,9 @@
       <c r="D11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4">
+        <v>180825</v>
+      </c>
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1043,7 +1068,9 @@
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4">
+        <v>239750</v>
+      </c>
       <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1075,7 +1102,9 @@
       <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4">
+        <v>22036</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
@@ -1090,7 +1119,9 @@
       <c r="D16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
@@ -1105,7 +1136,9 @@
       <c r="D17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4">
+        <v>163216</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
@@ -1120,7 +1153,9 @@
       <c r="D18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4">
+        <v>192743</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
@@ -1135,7 +1170,9 @@
       <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4">
+        <v>32072</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
@@ -1148,7 +1185,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E20" s="24"/>
     </row>
@@ -1163,9 +1200,11 @@
         <v>6</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="E21" s="24">
+        <v>3909</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -1178,9 +1217,11 @@
         <v>6</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="25"/>
+        <v>28</v>
+      </c>
+      <c r="E22" s="25">
+        <v>866</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
@@ -1195,7 +1236,9 @@
       <c r="D23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="25"/>
+      <c r="E23" s="25">
+        <v>10002</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
@@ -1210,7 +1253,9 @@
       <c r="D24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="25"/>
+      <c r="E24" s="25">
+        <v>10634</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
@@ -1225,7 +1270,9 @@
       <c r="D25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="25"/>
+      <c r="E25" s="25">
+        <v>82126</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
@@ -1276,7 +1323,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Hoja2!$C$1:$C$18</xm:f>
+            <xm:f>Hoja2!$C$1:$C$19</xm:f>
           </x14:formula1>
           <xm:sqref>D4:D26</xm:sqref>
         </x14:dataValidation>
@@ -1303,7 +1350,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,6 +1563,9 @@
       <c r="B19" s="18">
         <v>44695</v>
       </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">

--- a/kilometrajes.xlsx
+++ b/kilometrajes.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t xml:space="preserve">PLACA </t>
   </si>
@@ -194,12 +194,6 @@
   </si>
   <si>
     <t>Don Jose Luis</t>
-  </si>
-  <si>
-    <t>Sin kilometraje</t>
-  </si>
-  <si>
-    <t>Igual</t>
   </si>
   <si>
     <t>Gonzalo</t>
@@ -857,7 +851,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D1" sqref="D1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -874,10 +868,10 @@
         <v>25</v>
       </c>
       <c r="C1" s="31">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="D1" s="30">
-        <v>44919</v>
+        <v>44947</v>
       </c>
       <c r="E1" s="30"/>
     </row>
@@ -914,9 +908,7 @@
       <c r="D4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
@@ -931,9 +923,7 @@
       <c r="D5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
@@ -948,9 +938,7 @@
       <c r="D6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4">
-        <v>144073</v>
-      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
@@ -965,9 +953,7 @@
       <c r="D7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="4">
-        <v>56724</v>
-      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
@@ -982,9 +968,7 @@
       <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4">
-        <v>246252</v>
-      </c>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
@@ -999,9 +983,7 @@
       <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4">
-        <v>258978</v>
-      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
@@ -1016,9 +998,7 @@
       <c r="D10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="4">
-        <v>307153</v>
-      </c>
+      <c r="E10" s="4"/>
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1034,9 +1014,7 @@
       <c r="D11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4">
-        <v>180825</v>
-      </c>
+      <c r="E11" s="4"/>
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1068,9 +1046,7 @@
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4">
-        <v>239750</v>
-      </c>
+      <c r="E13" s="4"/>
       <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1102,9 +1078,7 @@
       <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="4">
-        <v>22036</v>
-      </c>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
@@ -1119,9 +1093,7 @@
       <c r="D16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
@@ -1136,9 +1108,7 @@
       <c r="D17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="4">
-        <v>163216</v>
-      </c>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
@@ -1153,9 +1123,7 @@
       <c r="D18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="4">
-        <v>192743</v>
-      </c>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
@@ -1170,9 +1138,7 @@
       <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="4">
-        <v>32072</v>
-      </c>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
@@ -1185,7 +1151,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E20" s="24"/>
     </row>
@@ -1202,9 +1168,7 @@
       <c r="D21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="24">
-        <v>3909</v>
-      </c>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -1219,9 +1183,7 @@
       <c r="D22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="25">
-        <v>866</v>
-      </c>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
@@ -1236,9 +1198,7 @@
       <c r="D23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="25">
-        <v>10002</v>
-      </c>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
@@ -1253,9 +1213,7 @@
       <c r="D24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="25">
-        <v>10634</v>
-      </c>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
@@ -1270,9 +1228,7 @@
       <c r="D25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="25">
-        <v>82126</v>
-      </c>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
@@ -1350,7 +1306,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="18">
-        <v>44569</v>
+        <v>44933</v>
       </c>
       <c r="C1" t="s">
         <v>55</v>
@@ -1374,7 +1330,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="18">
-        <v>44576</v>
+        <v>44940</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -1385,7 +1341,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="18">
-        <v>44583</v>
+        <v>44947</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -1396,7 +1352,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="18">
-        <v>44590</v>
+        <v>44954</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1407,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="18">
-        <v>44597</v>
+        <v>44961</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1418,7 +1374,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="18">
-        <v>44604</v>
+        <v>44968</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1429,7 +1385,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="18">
-        <v>44611</v>
+        <v>44975</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -1440,7 +1396,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="18">
-        <v>44618</v>
+        <v>44982</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1451,7 +1407,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="18">
-        <v>44625</v>
+        <v>44989</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -1462,7 +1418,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="18">
-        <v>44632</v>
+        <v>44996</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1473,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="18">
-        <v>44639</v>
+        <v>45003</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1484,7 +1440,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="18">
-        <v>44646</v>
+        <v>45010</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -1495,7 +1451,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="18">
-        <v>44653</v>
+        <v>45017</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -1506,7 +1462,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="18">
-        <v>44660</v>
+        <v>45024</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1517,7 +1473,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="18">
-        <v>44667</v>
+        <v>45031</v>
       </c>
       <c r="C15" t="s">
         <v>47</v>
@@ -1528,7 +1484,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="18">
-        <v>44674</v>
+        <v>45038</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -1539,7 +1495,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="18">
-        <v>44681</v>
+        <v>45045</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
@@ -1550,7 +1506,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="18">
-        <v>44688</v>
+        <v>45052</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
@@ -1561,10 +1517,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="18">
-        <v>44695</v>
+        <v>45059</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1572,7 +1528,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="18">
-        <v>44702</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1580,7 +1536,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="18">
-        <v>44709</v>
+        <v>45073</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1588,7 +1544,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="18">
-        <v>44716</v>
+        <v>45080</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1596,7 +1552,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="18">
-        <v>44723</v>
+        <v>45087</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1604,7 +1560,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="18">
-        <v>44730</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1612,7 +1568,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="18">
-        <v>44737</v>
+        <v>45101</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,7 +1576,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="18">
-        <v>44744</v>
+        <v>45108</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1628,7 +1584,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="18">
-        <v>44751</v>
+        <v>45115</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1636,7 +1592,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="18">
-        <v>44758</v>
+        <v>45122</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1644,7 +1600,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="18">
-        <v>44765</v>
+        <v>45129</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1652,7 +1608,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="18">
-        <v>44772</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1660,7 +1616,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="18">
-        <v>44779</v>
+        <v>45143</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1668,7 +1624,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="18">
-        <v>44786</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1676,7 +1632,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="18">
-        <v>44793</v>
+        <v>45157</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1684,7 +1640,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="18">
-        <v>44800</v>
+        <v>45164</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1692,7 +1648,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="18">
-        <v>44807</v>
+        <v>45171</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1700,7 +1656,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="18">
-        <v>44814</v>
+        <v>45178</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1708,7 +1664,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="18">
-        <v>44821</v>
+        <v>45185</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1716,7 +1672,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="18">
-        <v>44828</v>
+        <v>45192</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1724,7 +1680,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="18">
-        <v>44835</v>
+        <v>45199</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1732,7 +1688,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="18">
-        <v>44842</v>
+        <v>45206</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1740,7 +1696,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="18">
-        <v>44849</v>
+        <v>45213</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1748,7 +1704,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="18">
-        <v>44856</v>
+        <v>45220</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1756,7 +1712,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="18">
-        <v>44863</v>
+        <v>45227</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1764,7 +1720,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="18">
-        <v>44870</v>
+        <v>45234</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1772,7 +1728,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="18">
-        <v>44877</v>
+        <v>45241</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1780,7 +1736,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="18">
-        <v>44884</v>
+        <v>45248</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1788,7 +1744,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="18">
-        <v>44891</v>
+        <v>45255</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1796,7 +1752,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="18">
-        <v>44898</v>
+        <v>45262</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1804,7 +1760,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="18">
-        <v>44905</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1812,7 +1768,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="18">
-        <v>44912</v>
+        <v>45276</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1820,7 +1776,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="18">
-        <v>44919</v>
+        <v>45283</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1828,7 +1784,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="18">
-        <v>44926</v>
+        <v>45290</v>
       </c>
     </row>
   </sheetData>
